--- a/Vue.js.xlsx
+++ b/Vue.js.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vue.js" sheetId="2" r:id="rId1"/>
-    <sheet name="规则" sheetId="3" r:id="rId2"/>
-    <sheet name="component" sheetId="1" r:id="rId3"/>
-    <sheet name="属性" sheetId="4" r:id="rId4"/>
+    <sheet name="属性" sheetId="4" r:id="rId2"/>
+    <sheet name="规则" sheetId="3" r:id="rId3"/>
+    <sheet name="component" sheetId="1" r:id="rId4"/>
+    <sheet name="filter" sheetId="5" r:id="rId5"/>
+    <sheet name="自定义指令" sheetId="6" r:id="rId6"/>
+    <sheet name="组件mix_in" sheetId="7" r:id="rId7"/>
+    <sheet name="slot" sheetId="8" r:id="rId8"/>
+    <sheet name="实例生命周期" sheetId="10" r:id="rId9"/>
+    <sheet name="绑定HTML Class" sheetId="11" r:id="rId10"/>
+    <sheet name="事件" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +43,41 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -59,8 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -300,6 +347,25 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v-model.number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>转换为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>number</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -658,13 +724,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>		name: '',</a:t>
+            <a:t>	          name: '',</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>		age: ''	</a:t>
+            <a:t>	          age: ''	</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -819,6 +885,133 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>&lt;/button&gt;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>v-on = "{event:method, }"   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>绑定对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>禁止默认事件：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>方法中禁止</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>&lt;form v-on:submit="onSubmit(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$event</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>)"&gt;&lt;/form&gt; //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>传入事件  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>event.preventDefault</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>事件上禁止</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;form v-on:submit.prevent="onSubmit()"&gt;&lt;/form&gt;  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>禁止默认事件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>v-on:submit.stop   // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>禁止冒泡</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1042,7 +1235,908 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707DBF6F-AC45-4621-928D-DC5961B4967B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="219075"/>
+          <a:ext cx="8001000" cy="6943725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;div v-bind:class="{active: isActive, 'text-danger': hasError}"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>data:{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>     isActive:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> true,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>     hasError: false</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>或者 绑定对象：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;div :class="classObject"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>classObjcet:{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    active: true,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    'text-danger': false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数组语法：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;div v-bind:class="[activeClass, errorClass]"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>绑定内联样式：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;div :style="{color: colorValue, fontSize:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> fontSize + 'px'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div :style="styleObject"&gt;&lt;/div&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20241A1-7516-48E2-83A2-D21E0E0F1E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="133350"/>
+          <a:ext cx="6543675" cy="6391275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>监听事件：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>v-on:click</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> =  expression</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>v-on:click</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> =  method</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>事件修饰符：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.stop </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>阻止冒泡</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.prevent   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>阻止默认事件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.caputre   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>添加事件侦听器时使用事件捕获模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.self  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>事件在该元素本身时触发</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.once  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只触发一次</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0509107B-B6C5-4A99-AF94-3E21341C4E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="123825"/>
+          <a:ext cx="7896225" cy="6524625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>let app = new Vue({}); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Vue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实例，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>let app = new Vue({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>        el: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>选择器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>        data: {},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>        methods:{}, //  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>需要执行该函数 引用时带</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>        computed:{},//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>计算属性是基于它们的依赖进行缓存的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。计算属性只有在它的相关依赖发生改变时才会重新求值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>        mounted:{},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>        watch:{},</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>computed </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>计算属性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>简化模板；基于依赖进行缓存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>watch: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>检测个属性改变</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1476,7 +2570,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2236,6 +3330,13 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>子组件向父组件通信</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -2307,6 +3408,71 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>事件绑定</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>父组件向子组件通信：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>props:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>任意通信：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>var Event = new Vue();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Event.$emit(func,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Event.$on(func, callback);  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接收</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2315,27 +3481,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0509107B-B6C5-4A99-AF94-3E21341C4E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F900590F-18B9-4766-A0CA-1D33F20864D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,8 +3509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="123825"/>
-          <a:ext cx="7896225" cy="6524625"/>
+          <a:off x="228600" y="190500"/>
+          <a:ext cx="7010400" cy="6772275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2379,125 +3545,2510 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>let app = new Vue({}); //</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编写过滤器：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vue.filter("someone", function(ret, argv){  // ret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数为调用者， </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>argv </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为传入的数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return ret?"someone said:" + ret : null;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用过滤器：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> somedata| someone(argv)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047B1AF6-A246-4973-A1D5-760FA79B434A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="76200"/>
+          <a:ext cx="7077075" cy="6896100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div v-pin="pin1.pined" class="list"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!-- &lt;button @click="pin1.pined = !pin1.pined"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>确认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/button&gt; --&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> directive </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>会</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遍历</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所有带有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"v-pin" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指令的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vue.directive("pin",function(el, binding){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> el </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为单个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// binding </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为 带有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>v-pin = "xxx",</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的表达式的对象；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var status = binding;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// console.log(1);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// console.log(el); // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>每次传入单个使用指令的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Dom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>节点</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if(status.value){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin_container</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$(el).css({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>position: "fixed",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>right: 0,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>top: pin_container</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pin_container += $(el).outerHeight();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}else{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$(el).css(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{position: "static"}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45358CC5-2084-4692-A553-43F153C25FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="66675"/>
+          <a:ext cx="7077075" cy="6896100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>配置传参及修饰：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div v-pin:warning.top.right="pin1.pined" class="list"&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;!-- &lt;button @click="pin1.pined = !pin1.pined"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取消</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>确认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/button&gt; --&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>符</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>获取方式：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var position = binding.modifiers;  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对应一个对象，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var warning = binding.arg;    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对应一个变量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04A7149-6CA1-4E90-A543-857C84489B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="47625"/>
+          <a:ext cx="6734175" cy="9239250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>html</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>创建一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;template id="popup"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;button @click="trigger"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>点击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/button&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div v-if="show"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorem ipsum dolor sit amet consectetur adipisicing elit. Quidem laboriosam repellat mollitia sit porro eveniet cupiditate obcaecati fuga quis, consequuntur, aliquam dicta, esse saepe facere consequatur ipsa. Qui, nulla saepe!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/template&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;template id="tips"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;span @mouseenter="display" @mouseleave="hide"&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>展示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/span&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;div v-if="show"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修一修</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;/template&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>var base = {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>data: function(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>show: false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>methods: {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>trigger: function(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.show = !this.show;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>display: function(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.show = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hide(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.show = false;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>};</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vue.component("popup",{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>template: "#popup",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mixins: [base],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>data: function(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>show: true</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vue.component('tips',{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>template: `#tips`,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>mixins: [base],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFE6C40-6416-43AA-89D8-1055CB574368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="123825"/>
+          <a:ext cx="7562850" cy="6496050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根目录下往组件内传递数据：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;div</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> id="app"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>      &lt;comp&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>          &lt;div slot="title"&gt; something about title&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>     &lt;/comp&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>组件模板：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;template id="comp-tpl"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>     &lt;div&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>           &lt;h1&gt;&lt;slot name="title"&gt;&lt;/slot&gt;&lt;/h1&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>          &lt;h3&gt;&lt;slot name = "content"&gt; &lt;/slot&gt;&lt;/h3&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    &lt;/div&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>&lt;/template&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B30AF3-C74B-4D18-A41C-AFAEDD39DE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="85725"/>
+          <a:ext cx="7629525" cy="6981825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>new Vue({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	el: '#app',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	data:{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		a: 1,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	created: function(){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		// do something</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实例生命周期：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生命周期钩子</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用来在一个实例被创建之后执行代码；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mounted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>updated</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>destoryed;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  this </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>指向调用它的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>Vue</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>实例，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>let app = new Vue({</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>        el: </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>选择器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>        data: {},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>        methods:{}, //  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>需要执行该函数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>        computed:{},//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>计算属性是基于它们的依赖进行缓存的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>。计算属性只有在它的相关依赖发生改变时才会重新求值</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>        mounted:{},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>        watch:{},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>       </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>})</a:t>
+            <a:t>实例；</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2773,7 +6324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988B3799-0854-49C0-BF3C-85F88F39E14D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -2786,7 +6337,63 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6EFC23-C9A8-4FE3-8A9F-FC8A300F18AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9308521-3DD0-48D5-84BD-04A606060325}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DF3D5-B88C-47CA-BFE5-682A9C53F414}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA36BE5-5CF2-44FD-A9F2-D56D330A3137}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2802,12 +6409,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA67FE06-3F19-4ABF-9F0A-953E43BBC932}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C032E74-1B33-4922-80C0-9735414A7D3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2818,15 +6461,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98DF3D5-B88C-47CA-BFE5-682A9C53F414}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFADE2A-B87D-47F9-A061-DC7F4F51E42A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD595E5-51A1-4C79-990D-557E3A466D4C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A05137-1F05-4600-A913-5F6287047A2D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vue.js.xlsx
+++ b/Vue.js.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vue.js" sheetId="2" r:id="rId1"/>
@@ -6358,7 +6358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9308521-3DD0-48D5-84BD-04A606060325}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -6413,7 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
